--- a/data/case1/13/P2_14.xlsx
+++ b/data/case1/13/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.16889011822826205</v>
+        <v>0.14907911348512926</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.047685636784770224</v>
+        <v>-0.046093148373724802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999998275231974</v>
+        <v>-0.0089999995809524336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399699252267396</v>
+        <v>0.28399364616292999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0061714548044706774</v>
+        <v>-0.0059999995917641158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999998255797493</v>
+        <v>-0.0059999995741719658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999790822898</v>
+        <v>-0.01999999950045428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999788869793</v>
+        <v>-0.019999999496006282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999998207329597</v>
+        <v>-0.0059999995623325475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999999818833146</v>
+        <v>-0.0059999995574955278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999822296985</v>
+        <v>-0.0044999995648744573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999998182949099</v>
+        <v>-0.0059999995561237363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999998166748725</v>
+        <v>-0.0059999995516681892</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999801671102</v>
+        <v>-0.011999999519665572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999998160771284</v>
+        <v>0.0093046583664024851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.014693263568325232</v>
+        <v>-0.0059999995485335855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998151933909</v>
+        <v>-0.0059999995466260003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998076644161</v>
+        <v>-0.0089999995308014391</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999998281404814</v>
+        <v>-0.0089999995818179634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999998237848544</v>
+        <v>0.005685456248009757</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.050882253864202198</v>
+        <v>-0.062678654751868734</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999998226097944</v>
+        <v>-0.0089999995692084944</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999998255239078</v>
+        <v>-0.0089999995778500264</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.062934318596236771</v>
+        <v>-0.041999999401166832</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999740014893</v>
+        <v>-0.041999999398070642</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999998248194686</v>
+        <v>-0.0059999995727473276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999998237505459</v>
+        <v>-0.0059999995704944631</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.005999999819614743</v>
+        <v>-0.0059999995609594237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999802293715</v>
+        <v>-0.011999999523604643</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999781434852</v>
+        <v>-0.019999999479504815</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999791591279</v>
+        <v>-0.014999999500840744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999776670109</v>
+        <v>-0.020999999469349717</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999998130164656</v>
+        <v>-0.0059999995462440836</v>
       </c>
     </row>
   </sheetData>
